--- a/ssu_bot_api/static/images/pics_num.xlsx
+++ b/ssu_bot_api/static/images/pics_num.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jymjg\Desktop\사진\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jymjg\Desktop\SSU_BOT\ssu_bot_api\static\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC854566-B292-4ECA-B3BD-FCB7381B7A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526C6C30-0525-4750-A4BF-0368D0D494AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{91359C68-83FD-492D-AB72-6389E845586A}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{91359C68-83FD-492D-AB72-6389E845586A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">186, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>link</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,6 +286,10 @@
   </si>
   <si>
     <t>http://15.164.249.147/images/0.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">146, 150, 186, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -714,7 +714,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -750,7 +750,7 @@
         <v>36</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -764,7 +764,7 @@
         <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -778,7 +778,7 @@
         <v>34</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -792,7 +792,7 @@
         <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -806,7 +806,7 @@
         <v>32</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -820,7 +820,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="68" x14ac:dyDescent="0.45">
@@ -834,7 +834,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -848,7 +848,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -862,7 +862,7 @@
         <v>29</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -876,7 +876,7 @@
         <v>23</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -890,7 +890,7 @@
         <v>37</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -904,7 +904,7 @@
         <v>38</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -918,7 +918,7 @@
         <v>21</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -932,7 +932,7 @@
         <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -946,7 +946,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -960,7 +960,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -974,7 +974,7 @@
         <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -988,7 +988,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -999,10 +999,10 @@
         <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
